--- a/Krinkel-Core/test.xlsx
+++ b/Krinkel-Core/test.xlsx
@@ -12,7 +12,106 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="73">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Ad-nummer</t>
+  </si>
+  <si>
+    <t>Stamnummer</t>
+  </si>
+  <si>
+    <t>Geslacht</t>
+  </si>
+  <si>
+    <t>Voornaam</t>
+  </si>
+  <si>
+    <t>Achternaam</t>
+  </si>
+  <si>
+    <t>Geboortedatum</t>
+  </si>
+  <si>
+    <t>Straat</t>
+  </si>
+  <si>
+    <t>Huisnummer</t>
+  </si>
+  <si>
+    <t>Postcode</t>
+  </si>
+  <si>
+    <t>Gemeente</t>
+  </si>
+  <si>
+    <t>Telefoonnummer</t>
+  </si>
+  <si>
+    <t>E-mailadres</t>
+  </si>
+  <si>
+    <t>Evenementsfunctie</t>
+  </si>
+  <si>
+    <t>Data voorwacht</t>
+  </si>
+  <si>
+    <t>Data nawacht</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
+    <t>Talen</t>
+  </si>
+  <si>
+    <t>Eetgewoonte</t>
+  </si>
+  <si>
+    <t>Bemerkingen eten</t>
+  </si>
+  <si>
+    <t>Medische info</t>
+  </si>
+  <si>
+    <t>Bemerkingen</t>
+  </si>
+  <si>
+    <t>Kampgrond</t>
+  </si>
+  <si>
+    <t>Gekozen functie</t>
+  </si>
+  <si>
+    <t>Andere functie</t>
+  </si>
+  <si>
+    <t>Sociale promotie</t>
+  </si>
+  <si>
+    <t>Geregistreerd door</t>
+  </si>
+  <si>
+    <t>E-mailadres inschrijver</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Syncstatus</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>AG /0103</t>
+  </si>
+  <si>
+    <t>Man</t>
+  </si>
   <si>
     <t>Johnny</t>
   </si>
@@ -20,19 +119,118 @@
     <t>Flodder</t>
   </si>
   <si>
+    <t>21-08-1995</t>
+  </si>
+  <si>
+    <t>Veldstraat</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>Brussel</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>email@test.be</t>
+  </si>
+  <si>
+    <t>Aspi</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Vis en vlees</t>
+  </si>
+  <si>
+    <t>food remarks</t>
+  </si>
+  <si>
+    <t>medical remarks</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Te betalen</t>
+  </si>
+  <si>
+    <t>234567</t>
+  </si>
+  <si>
+    <t>BG /0301</t>
+  </si>
+  <si>
     <t>Kees</t>
   </si>
   <si>
+    <t>345678</t>
+  </si>
+  <si>
+    <t>Vrouw</t>
+  </si>
+  <si>
     <t>Ma</t>
   </si>
   <si>
+    <t>Bevestigd</t>
+  </si>
+  <si>
+    <t>456789</t>
+  </si>
+  <si>
+    <t>LEG/0101</t>
+  </si>
+  <si>
     <t>Cees</t>
   </si>
   <si>
+    <t>Betaald</t>
+  </si>
+  <si>
+    <t>987654</t>
+  </si>
+  <si>
+    <t>AG /0202</t>
+  </si>
+  <si>
     <t>Frederik</t>
   </si>
   <si>
+    <t>876543</t>
+  </si>
+  <si>
     <t>Jos</t>
+  </si>
+  <si>
+    <t>Vrijwilliger</t>
+  </si>
+  <si>
+    <t>21-08-2017, 22-08-2017, 23-08-2017</t>
+  </si>
+  <si>
+    <t>31-08-2017, 01-09-2017, 02-09-2017</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Spaans, Frans</t>
+  </si>
+  <si>
+    <t>Kempen</t>
+  </si>
+  <si>
+    <t>Kampgrondtrekker</t>
+  </si>
+  <si>
+    <t>Gesynchroniseerd</t>
   </si>
 </sst>
 </file>
@@ -84,69 +282,615 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>10.0</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R2" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>43</v>
+      </c>
+      <c r="R3" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" t="s">
+        <v>44</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+      <c r="V3"/>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40.0</v>
+        <v>30.0</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4" t="s">
+        <v>42</v>
+      </c>
+      <c r="X4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50.0</v>
+        <v>40.0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" t="s">
+        <v>44</v>
+      </c>
+      <c r="T5"/>
+      <c r="U5"/>
+      <c r="V5"/>
+      <c r="W5" t="s">
+        <v>42</v>
+      </c>
+      <c r="X5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>43</v>
+      </c>
+      <c r="R6" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" t="s">
+        <v>44</v>
+      </c>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
         <v>60.0</v>
       </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>65</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>44</v>
+      </c>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7" t="s">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>55</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
